--- a/forwardprimer-v3_24.xlsx
+++ b/forwardprimer-v3_24.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="forwardprimer-v3_24" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>F2209-TTCCTCTACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCCTCTACTTCGTCGGCAGCGTC</t>
+    <t>F2209-AAGTACAGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGTACAGAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>F2210-CTGACAGTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTGACAGTCATCGTCGGCAGCGTC</t>
+    <t>F2210-CAACCTAGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAACCTAGAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>F2211-ACGTCTACTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACGTCTACTTTCGTCGGCAGCGTC</t>
+    <t>F2211-TTCGAAGGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCGAAGGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>F2212-AAGGAGGTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGGAGGTCTTCGTCGGCAGCGTC</t>
+    <t>F2212-CTAGTACTCC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTAGTACTCCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>F2213-TGACCAGCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGACCAGCATTCGTCGGCAGCGTC</t>
+    <t>F2213-GCATCGTCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCATCGTCAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>F2214-TGACATGTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGACATGTGTTCGTCGGCAGCGTC</t>
+    <t>F2214-TCACTACACC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCACTACACCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>F2215-CCTCTAGTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCTCTAGTCTTCGTCGGCAGCGTC</t>
+    <t>F2215-GTGACATGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGACATGTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>F2216-GTGCAACTTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGCAACTTGTCGTCGGCAGCGTC</t>
+    <t>F2216-TGATGTCACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGATGTCACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>F2217-GTGAGCTGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGAGCTGATTCGTCGGCAGCGTC</t>
+    <t>F2217-GGAAGGTGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGAAGGTGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A10</t>
   </si>
   <si>
-    <t>F2218-CTCTTCAGCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTCTTCAGCTTCGTCGGCAGCGTC</t>
+    <t>F2218-ACCTTCAGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACCTTCAGAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A11</t>
   </si>
   <si>
-    <t>F2219-ACTGAGCACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTGAGCACATCGTCGGCAGCGTC</t>
+    <t>F2219-TGTGTGAGCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTGTGAGCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A12</t>
   </si>
   <si>
-    <t>F2220-TGTCGAACAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTCGAACACTCGTCGGCAGCGTC</t>
+    <t>F2220-GAAGAAGTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAAGAAGTGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>F2221-GCTTGGTAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCTTGGTAGTTCGTCGGCAGCGTC</t>
+    <t>F2221-CAGTGAGTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAGTGAGTCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B2</t>
   </si>
   <si>
-    <t>F2222-CAGCAAGAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAGCAAGAGATCGTCGGCAGCGTC</t>
+    <t>F2222-AGACCACACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGACCACACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B3</t>
   </si>
   <si>
-    <t>F2223-CAAGACTCCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAAGACTCCTTCGTCGGCAGCGTC</t>
+    <t>F2223-AACGTCCAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACGTCCAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B4</t>
   </si>
   <si>
-    <t>F2224-CATCAGTTGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATCAGTTGCTCGTCGGCAGCGTC</t>
+    <t>F2224-CAACCAAGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAACCAAGTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B5</t>
   </si>
   <si>
-    <t>F2225-GGATCCTAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGATCCTAGATCGTCGGCAGCGTC</t>
+    <t>F2225-TCCTCTCTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCCTCTCTCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B6</t>
   </si>
   <si>
-    <t>F2226-ACCAGACATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACCAGACATCTCGTCGGCAGCGTC</t>
+    <t>F2226-TGAGCTGATG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGAGCTGATGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B7</t>
   </si>
   <si>
-    <t>F2227-ACAAGTGTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAAGTGTGTTCGTCGGCAGCGTC</t>
+    <t>F2227-TAGCTGTCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGCTGTCTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B8</t>
   </si>
   <si>
-    <t>F2228-ATGGTTGGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGGTTGGAGTCGTCGGCAGCGTC</t>
+    <t>F2228-CCTGTTGATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCTGTTGATCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B9</t>
   </si>
   <si>
-    <t>F2229-GTAGCACGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTAGCACGTATCGTCGGCAGCGTC</t>
+    <t>F2229-TACTAGTCGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACTAGTCGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B10</t>
   </si>
   <si>
-    <t>F2230-GCTGAGATCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCTGAGATCATCGTCGGCAGCGTC</t>
+    <t>F2230-CTACTACAGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTACTACAGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B11</t>
   </si>
   <si>
-    <t>F2231-TGAAGGTCAC</t>
+    <t>F2231-TCCATGCACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCCATGCACTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>F2232-TGGTTCACCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGGTTCACCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>F2233-ACACTCACTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACACTCACTATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>F2234-GTCGTTGTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCGTTGTCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>F2235-AGTCACAGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTCACAGAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>F2236-ATGGTGTTGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGGTGTTGGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>F2237-TCGACACAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCGACACAAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>F2238-TTGTCCTTCC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGTCCTTCCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>F2239-ATCAACGACG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCAACGACGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>F2240-GGTGATCTTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGTGATCTTCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>F2241-GCTGATGCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCTGATGCAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>F2242-CATCGTGATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCATCGTGATCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>F2243-TGAAGGTCAC</t>
   </si>
   <si>
     <t>AATGATACGGCGACCACCGAGATCTACACTGAAGGTCACTCGTCGGCAGCGTC</t>
   </si>
   <si>
-    <t>B12</t>
-  </si>
-  <si>
-    <t>F2232-TGGAGACTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGGAGACTAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>F2233-GGTGACTAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGTGACTAGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>F2234-AGCACAGGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGCACAGGATTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>F2235-TCTTCGAACA</t>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>F2244-CAAGTCCATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAAGTCCATCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>F2245-CAACGACCTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAACGACCTATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>F2246-ATGGTAGAGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGGTAGAGCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>F2247-AAGATCAGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGATCAGACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>F2248-TCTTCGAACA</t>
   </si>
   <si>
     <t>AATGATACGGCGACCACCGAGATCTACACTCTTCGAACATCGTCGGCAGCGTC</t>
   </si>
   <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>F2236-GACAGGAGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGACAGGAGTATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>F2237-TCATCCTACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCATCCTACATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>F2238-CATCTGTAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATCTGTAGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>F2239-GATCGAACCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATCGAACCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>F2240-ACCAACCTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACCAACCTGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>F2241-TACACCAGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACACCAGAATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>F2242-TGTGAACCTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTGAACCTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>F2243-AACCAGACTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACCAGACTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>F2244-TAGTGCTACG</t>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>F2249-ACCAGCTACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACCAGCTACTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>F2250-TCTAGCAGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTAGCAGATTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>F2251-TGTGTGTACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTGTGTACATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>F2252-ACACAACCTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACACAACCTATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>F2253-ATCACCACCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCACCACCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>F2254-GAACTGTCGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAACTGTCGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>F2255-TGAGTGCTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGAGTGCTCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>F2256-AAGGATGGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGGATGGTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>F2257-TTGATGCACG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGATGCACGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>F2258-TGTGCAACGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTGCAACGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>F2259-ACTCACGTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTCACGTCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>F2260-ATCACGAGCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCACGAGCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>F2261-TCTCAGAGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTCAGAGAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>F2262-TAGTGCTACG</t>
   </si>
   <si>
     <t>AATGATACGGCGACCACCGAGATCTACACTAGTGCTACGTCGTCGGCAGCGTC</t>
   </si>
   <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>F2245-GCATGCAAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCATGCAAGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>F2246-AGTCAGAACG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTCAGAACGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>F2247-CTAGTCAAGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTAGTCAAGCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>F2248-AGTGCTCATG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTGCTCATGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>F2249-ACTGTCTGCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTGTCTGCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>F2250-TAGCTCCATG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGCTCCATGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>F2251-AACCAACTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACCAACTCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>F2252-TCAGACTGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCAGACTGTTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>F2253-ACACGTAGCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACACGTAGCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>F2254-GAGTCCTCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGTCCTCAATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>F2255-CTACAGATGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTACAGATGCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D12</t>
-  </si>
-  <si>
-    <t>F2256-GATGTCATCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATGTCATCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>F2257-TGACTTGCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGACTTGCAATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>F2258-TCACATGCAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCACATGCACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>F2259-ACGACTACAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACGACTACACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>F2260-TGACCACAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGACCACAACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
-    <t>F2261-TGCATCAGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGCATCAGATTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E6</t>
-  </si>
-  <si>
-    <t>F2262-CACAACGATG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCACAACGATGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
     <t>E7</t>
   </si>
   <si>
-    <t>F2263-TTGTAGGTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGTAGGTAGTCGTCGGCAGCGTC</t>
+    <t>F2263-TACACGTACC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACACGTACCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E8</t>
   </si>
   <si>
-    <t>F2264-GGACTACGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGACTACGTTTCGTCGGCAGCGTC</t>
+    <t>F2264-TTCACCACAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCACCACACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E9</t>
   </si>
   <si>
-    <t>F2265-TGGAGATGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGGAGATGTATCGTCGGCAGCGTC</t>
+    <t>F2265-ACTCGATGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTCGATGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E10</t>
   </si>
   <si>
-    <t>F2266-AAGTACTGGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGTACTGGTTCGTCGGCAGCGTC</t>
+    <t>F2266-ATCAAGTCAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCAAGTCACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E11</t>
   </si>
   <si>
-    <t>F2267-CAGTTCCAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAGTTCCAGATCGTCGGCAGCGTC</t>
+    <t>F2267-TGTACCTTGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTACCTTGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E12</t>
   </si>
   <si>
-    <t>F2268-CGACAAGCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGACAAGCTTTCGTCGGCAGCGTC</t>
+    <t>F2268-GACTTGTGCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGACTTGTGCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F1</t>
   </si>
   <si>
-    <t>F2269-TCAGTGAGGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCAGTGAGGATCGTCGGCAGCGTC</t>
+    <t>F2269-AGAACGAGCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAACGAGCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F2</t>
   </si>
   <si>
-    <t>F2270-CTGCTTCTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTGCTTCTTCTCGTCGGCAGCGTC</t>
+    <t>F2270-TCGAAGTACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCGAAGTACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F3</t>
   </si>
   <si>
-    <t>F2271-GGTGTCTGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGTGTCTGAATCGTCGGCAGCGTC</t>
+    <t>F2271-ATGCAGTCTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGCAGTCTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F4</t>
   </si>
   <si>
-    <t>F2272-GCATCTCTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCATCTCTGATCGTCGGCAGCGTC</t>
+    <t>F2272-GAGGTCAGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGGTCAGTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F5</t>
   </si>
   <si>
-    <t>F2273-CGTACTTGCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGTACTTGCATCGTCGGCAGCGTC</t>
+    <t>F2273-ACTACGAGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTACGAGAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F6</t>
   </si>
   <si>
-    <t>F2274-AACTGATGCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACTGATGCTTCGTCGGCAGCGTC</t>
+    <t>F2274-TGTGCAGTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTGCAGTCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F7</t>
   </si>
   <si>
-    <t>F2275-GATCCTACTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATCCTACTATCGTCGGCAGCGTC</t>
+    <t>F2275-GAGAGTTCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGAGTTCAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F8</t>
   </si>
   <si>
-    <t>F2276-TCACACTCTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCACACTCTCTCGTCGGCAGCGTC</t>
+    <t>F2276-ATCCACACTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCCACACTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F9</t>
   </si>
   <si>
-    <t>F2277-ACTGAACTCG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTGAACTCGTCGTCGGCAGCGTC</t>
+    <t>F2277-TTGACAGTTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGACAGTTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F10</t>
   </si>
   <si>
-    <t>F2278-TACGAACGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACGAACGAATCGTCGGCAGCGTC</t>
+    <t>F2278-TGAACAGTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGAACAGTGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F11</t>
   </si>
   <si>
-    <t>F2279-AGAACACGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAACACGAGTCGTCGGCAGCGTC</t>
+    <t>F2279-GATGTCCTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATGTCCTAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F12</t>
   </si>
   <si>
-    <t>F2280-ACAGGTACAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAGGTACACTCGTCGGCAGCGTC</t>
+    <t>F2280-ACATGACCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACATGACCAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G1</t>
   </si>
   <si>
-    <t>F2281-ACGATCAAGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACGATCAAGCTCGTCGGCAGCGTC</t>
+    <t>F2281-TACAGCTAGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACAGCTAGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G2</t>
   </si>
   <si>
-    <t>F2282-CCAGAGACAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCAGAGACATTCGTCGGCAGCGTC</t>
+    <t>F2282-ACTGTGACCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTGTGACCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G3</t>
   </si>
   <si>
-    <t>F2283-GTGTAGTCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGTAGTCAATCGTCGGCAGCGTC</t>
+    <t>F2283-GAGTCTACGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGTCTACGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G4</t>
   </si>
   <si>
-    <t>F2284-CTCATCACAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTCATCACAGTCGTCGGCAGCGTC</t>
+    <t>F2284-CAGTAGAGCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAGTAGAGCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G5</t>
   </si>
   <si>
-    <t>F2285-AGAACGAGCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAACGAGCATCGTCGGCAGCGTC</t>
+    <t>F2285-TCTCGTAGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTCGTAGTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G6</t>
   </si>
   <si>
-    <t>F2286-TTGTCTCCTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGTCTCCTGTCGTCGGCAGCGTC</t>
+    <t>F2286-ACACCAACTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACACCAACTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G7</t>
   </si>
   <si>
-    <t>F2287-CGTCACATGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGTCACATGTTCGTCGGCAGCGTC</t>
+    <t>F2287-AGTCCTTGGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTCCTTGGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G8</t>
   </si>
   <si>
-    <t>F2288-ATCTGAGTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCTGAGTGATCGTCGGCAGCGTC</t>
+    <t>F2288-CTAGATCAGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTAGATCAGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G9</t>
   </si>
   <si>
-    <t>F2289-CTTGAGAGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTTGAGAGTATCGTCGGCAGCGTC</t>
+    <t>F2289-TCACTCTGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCACTCTGAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G10</t>
   </si>
   <si>
-    <t>F2290-TTCTGACTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCTGACTCTTCGTCGGCAGCGTC</t>
+    <t>F2290-TCATGAGGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCATGAGGACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G11</t>
   </si>
   <si>
-    <t>F2291-TCCACAGAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCCACAGAGTTCGTCGGCAGCGTC</t>
+    <t>F2291-ATGGACCATG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGGACCATGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G12</t>
   </si>
   <si>
-    <t>F2292-TACCTAGCTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACCTAGCTGTCGTCGGCAGCGTC</t>
+    <t>F2292-CGTCACTGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGTCACTGATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H1</t>
   </si>
   <si>
-    <t>F2293-GCAGTGAGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCAGTGAGATTCGTCGGCAGCGTC</t>
+    <t>F2293-CTTGCTCACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTTGCTCACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H2</t>
   </si>
   <si>
-    <t>F2294-CAACATGGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAACATGGTATCGTCGGCAGCGTC</t>
+    <t>F2294-ACTGAGAGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTGAGAGATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H3</t>
   </si>
   <si>
-    <t>F2295-AGACTAGTCC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGACTAGTCCTCGTCGGCAGCGTC</t>
+    <t>F2295-AAGCACAGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGCACAGTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H4</t>
   </si>
   <si>
-    <t>F2296-ACCAAGCTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACCAAGCTCATCGTCGGCAGCGTC</t>
+    <t>F2296-GTCTTCAACC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCTTCAACCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H5</t>
   </si>
   <si>
-    <t>F2297-TAGCTGAACG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGCTGAACGTCGTCGGCAGCGTC</t>
+    <t>F2297-GTGAGTCAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGAGTCAAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H6</t>
   </si>
   <si>
-    <t>F2298-TGAGTGCTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGAGTGCTCATCGTCGGCAGCGTC</t>
+    <t>F2298-AAGTGTGTGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGTGTGTGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>F2299-AGTACCTCTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTACCTCTCTCGTCGGCAGCGTC</t>
+    <t>F2299-TAGACCAACC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGACCAACCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>F2300-CTCTCACTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTCTCACTGTTCGTCGGCAGCGTC</t>
+    <t>F2300-ACCAACGATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACCAACGATCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>F2301-CTCATGAAGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTCATGAAGCTCGTCGGCAGCGTC</t>
+    <t>F2301-AGTACAGTGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTACAGTGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>F2302-GTACGTCTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTACGTCTGATCGTCGGCAGCGTC</t>
+    <t>F2302-TAGAACCAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGAACCAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>F2303-GTAGGTTGCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTAGGTTGCTTCGTCGGCAGCGTC</t>
+    <t>F2303-GAGACATCAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGACATCAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>F2304-TCAAGCTGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCAAGCTGACTCGTCGGCAGCGTC</t>
+    <t>F2304-AAGGAACCTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGGAACCTATCGTCGGCAGCGTC</t>
   </si>
 </sst>
 </file>
